--- a/01_Datos_Ventas.xlsx
+++ b/01_Datos_Ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\storr\OneDrive\Documentos\01_JV\10 Curso AD\03 Corfo - Analisis de Datos\01 Curso\02 Obtencion y Preparacion de datos\0 Casos de Uso\2 archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD6EC184-887C-4925-9AE2-335A5D803A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205A6228-66C1-4DA3-8C3D-1465E0EC7580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{087448D6-8F3A-4EF8-9D6B-17A681F1360A}"/>
   </bookViews>
@@ -126,8 +126,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E69304A-0398-4E22-AEF1-1C69A5144CF2}" name="producto_datos_venta" displayName="producto_datos_venta" ref="B1:C6" totalsRowShown="0">
-  <autoFilter ref="B1:C6" xr:uid="{9E69304A-0398-4E22-AEF1-1C69A5144CF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E69304A-0398-4E22-AEF1-1C69A5144CF2}" name="producto_datos_venta" displayName="producto_datos_venta" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{9E69304A-0398-4E22-AEF1-1C69A5144CF2}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D6C449A1-0BCE-44D7-865B-004DF39360F6}" name="Especie"/>
     <tableColumn id="2" xr3:uid="{DA9E5778-9572-4241-B53F-0A4D4E212129}" name="Valor $"/>
@@ -433,62 +433,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D179E642-5A95-415B-8E19-AD53EE50FDA8}">
-  <dimension ref="B1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="B2">
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="B3">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="B4">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="B5">
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="B6">
         <v>700</v>
       </c>
     </row>
